--- a/FUNNELVENTAS/bin/Debug/Prueba1.xlsx
+++ b/FUNNELVENTAS/bin/Debug/Prueba1.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="VENTAS" sheetId="1" r:id="R58b49c3e53ea4d71"/>
+    <x:sheet name="VENTAS" sheetId="1" r:id="R516ab62f3f654fc9"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -165,6 +165,39 @@
   </x:si>
   <x:si>
     <x:t>gdfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tito</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVID PEREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fsdfsd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdsfds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdsfd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fernando Gutierrez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAFAEL PEREZ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -495,7 +528,7 @@
 
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="B5:Z9"/>
+  <x:dimension ref="B5:Z11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -853,6 +886,148 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
+    <x:row r="10">
+      <x:c r="B10" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="O10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="R10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="T10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="U10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="V10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="W10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="X10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Y10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="Z10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="B11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O11" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="P11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="R11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="S11" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="T11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="U11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="V11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="W11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="X11" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Y11" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Z11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>